--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="271">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -478,6 +478,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1194,44 +1198,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2485,13 +2489,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2542,7 +2546,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2560,7 +2564,7 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -2571,11 +2575,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2594,16 +2598,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2653,7 +2657,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2665,13 +2669,13 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2682,11 +2686,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2705,19 +2709,19 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -2766,7 +2770,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -2778,7 +2782,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -2795,7 +2799,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2818,13 +2822,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2875,7 +2879,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>85</v>
@@ -2904,7 +2908,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2930,10 +2934,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2984,7 +2988,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>85</v>
@@ -3013,7 +3017,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3039,10 +3043,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3081,17 +3085,17 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3103,7 +3107,7 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3120,7 +3124,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3143,13 +3147,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3200,7 +3204,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3218,7 +3222,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3229,11 +3233,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3252,16 +3256,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3311,7 +3315,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3323,13 +3327,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3340,11 +3344,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3363,19 +3367,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3424,7 +3428,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3436,7 +3440,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3453,7 +3457,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3479,10 +3483,10 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3533,7 +3537,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3562,7 +3566,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3588,13 +3592,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3644,7 +3648,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3673,7 +3677,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3696,13 +3700,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3753,7 +3757,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3782,7 +3786,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3808,10 +3812,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3862,7 +3866,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3871,7 +3875,7 @@
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3891,7 +3895,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3914,13 +3918,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3971,7 +3975,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3989,7 +3993,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4000,11 +4004,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4023,16 +4027,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4082,7 +4086,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4094,13 +4098,13 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4111,11 +4115,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4134,19 +4138,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4195,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4207,7 +4211,7 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4224,7 +4228,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4250,13 +4254,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4285,10 +4289,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4306,7 +4310,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4335,7 +4339,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4358,16 +4362,16 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4417,7 +4421,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4446,7 +4450,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4472,10 +4476,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4526,7 +4530,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4535,7 +4539,7 @@
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4555,7 +4559,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4578,13 +4582,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4635,7 +4639,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4653,7 +4657,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4664,11 +4668,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4687,16 +4691,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4746,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4758,13 +4762,13 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4775,11 +4779,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4798,19 +4802,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -4859,7 +4863,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4871,7 +4875,7 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4888,7 +4892,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4914,10 +4918,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4947,10 +4951,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -4968,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>85</v>
@@ -4997,7 +5001,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5023,13 +5027,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5079,7 +5083,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>85</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5131,13 +5135,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5188,7 +5192,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5217,7 +5221,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5243,10 +5247,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5297,7 +5301,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5326,7 +5330,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5349,13 +5353,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5406,7 +5410,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5435,7 +5439,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5458,13 +5462,13 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5515,7 +5519,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5544,7 +5548,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5570,10 +5574,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5624,7 +5628,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5633,7 +5637,7 @@
         <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5653,7 +5657,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5676,13 +5680,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5733,7 +5737,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -5751,7 +5755,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5762,11 +5766,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5785,16 +5789,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5844,7 +5848,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -5856,13 +5860,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -5873,11 +5877,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5896,19 +5900,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -5957,7 +5961,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -5969,7 +5973,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -5986,7 +5990,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6009,13 +6013,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6066,7 +6070,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>85</v>
@@ -6095,7 +6099,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6121,10 +6125,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6175,7 +6179,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6204,7 +6208,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6227,16 +6231,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6286,7 +6290,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6315,7 +6319,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6341,13 +6345,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6397,7 +6401,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6426,7 +6430,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6449,16 +6453,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6508,7 +6512,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6537,10 +6541,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>76</v>
@@ -6565,10 +6569,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6619,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6631,7 +6635,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -6648,7 +6652,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6671,13 +6675,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6728,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -6746,7 +6750,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6757,11 +6761,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6780,16 +6784,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6839,7 +6843,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -6851,13 +6855,13 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -6868,11 +6872,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6891,19 +6895,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -6952,7 +6956,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -6964,7 +6968,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
@@ -6981,7 +6985,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7007,10 +7011,10 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7061,7 +7065,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7090,7 +7094,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7116,13 +7120,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7172,7 +7176,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7201,7 +7205,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7224,10 +7228,10 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>80</v>
@@ -7281,7 +7285,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7310,7 +7314,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7336,10 +7340,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7390,7 +7394,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7399,7 +7403,7 @@
         <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7419,7 +7423,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7442,13 +7446,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7499,7 +7503,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -7517,7 +7521,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7528,11 +7532,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7551,16 +7555,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7610,7 +7614,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -7622,13 +7626,13 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7639,11 +7643,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7662,19 +7666,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -7723,7 +7727,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -7735,7 +7739,7 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -7752,7 +7756,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7778,13 +7782,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7813,10 +7817,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -7834,7 +7838,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -7863,7 +7867,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7886,16 +7890,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7945,7 +7949,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -7974,7 +7978,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8000,10 +8004,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8054,7 +8058,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8067,7 @@
         <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8083,7 +8087,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8106,13 +8110,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8163,7 +8167,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8181,7 +8185,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8192,11 +8196,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8215,16 +8219,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8274,7 +8278,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8286,13 +8290,13 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8303,11 +8307,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8326,19 +8330,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8387,7 +8391,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8399,7 +8403,7 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -8416,7 +8420,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8442,10 +8446,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8475,10 +8479,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -8496,7 +8500,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>85</v>
@@ -8525,7 +8529,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8551,13 +8555,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8607,7 +8611,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>85</v>
@@ -8636,7 +8640,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8659,13 +8663,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8716,7 +8720,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -8745,7 +8749,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8771,10 +8775,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8825,7 +8829,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -8854,7 +8858,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8877,13 +8881,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8934,7 +8938,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -8963,7 +8967,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8986,13 +8990,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9043,7 +9047,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9072,7 +9076,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9098,10 +9102,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9152,7 +9156,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9161,7 +9165,7 @@
         <v>85</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9181,7 +9185,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9204,13 +9208,13 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9261,7 +9265,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9279,7 +9283,7 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -9290,11 +9294,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9313,16 +9317,16 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9372,7 +9376,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9384,13 +9388,13 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -9401,11 +9405,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9424,19 +9428,19 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -9485,7 +9489,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -9497,7 +9501,7 @@
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
@@ -9514,7 +9518,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9537,13 +9541,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9594,7 +9598,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>85</v>
@@ -9623,7 +9627,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9649,10 +9653,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9703,7 +9707,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -9732,7 +9736,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9755,16 +9759,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9814,7 +9818,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -9843,7 +9847,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9869,13 +9873,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9925,7 +9929,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -9954,7 +9958,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9977,16 +9981,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10036,7 +10040,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10065,7 +10069,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10088,19 +10092,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -10149,7 +10153,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6635,7 +6635,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A DDCC Submit Health Event Response](StructureDefinition-DDCCSubmitHealthEventRespose.html) is a transaction reponse bundle containing the operation outcomes for the submission of one or more health certificates under the [Submit Health Event](transactions.html#submit-health-event) transaction.
-</t>
+    <t>A DDCC Submit Health Event Response](StructureDefinition-DDCCSubmitHealthEventRespose.html) is a transaction reponse bundle containing the operation outcomes for the submission of one or more health certificates under the [Submit Health Event](transactions.html#submit-health-event) transaction.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
